--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A5B6F3-83DC-4419-9252-C719350E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2904D3-3BEF-4B74-93BC-0BF0501FB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4497,7 +4497,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>19.579999999999998</v>
+        <v>20</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4547,7 +4547,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="398">
         <f>I4*I5/1000000</f>
-        <v>28416.648860159996</v>
+        <v>29026.19904</v>
       </c>
       <c r="J6" s="399"/>
       <c r="K6" s="151"/>
@@ -4558,11 +4558,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>0.18708152485402066</v>
+        <v>0.1831528128320862</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>1.4215610080833632E-3</v>
+        <v>1.3917082269136124E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4589,11 +4589,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>2.7434464840942918</v>
+        <v>2.8022946722107172</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.36450501433059124</v>
+        <v>0.35685040902964882</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4612,11 +4612,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.21476817696953207</v>
+        <v>0.21937505308430244</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>0.35550113223448443</v>
+        <v>0.47609076001414941</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4715,14 +4715,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>19.579999999999998</v>
+        <v>20</v>
       </c>
       <c r="C16" s="419">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.14863802836034026</v>
+        <v>-0.16861662976477323</v>
       </c>
       <c r="E16" s="416">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.8947906026557718E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G16" s="403" t="s">
         <v>25</v>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>13.631091146241932</v>
+        <v>14.051091146241934</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10413,7 +10413,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="436">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>1796968.6371599957</v>
+        <v>2406518.8170000017</v>
       </c>
       <c r="E60" s="437"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2904D3-3BEF-4B74-93BC-0BF0501FB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729C72D-E202-4734-AE93-E83B987F16A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2906,7 +2909,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3800,20 +3803,167 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3830,7 +3980,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3845,152 +3994,6 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4032,6 +4035,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4426,8 +4432,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4471,33 +4477,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="384" t="s">
+      <c r="C3" s="375" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="385"/>
+      <c r="D3" s="376"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="396" t="s">
+      <c r="I3" s="385" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="397"/>
+      <c r="J3" s="386"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="386" t="s">
+      <c r="C4" s="377" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="387"/>
+      <c r="D4" s="378"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4508,10 +4514,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="388">
+      <c r="C5" s="379">
         <v>44956</v>
       </c>
-      <c r="D5" s="387"/>
+      <c r="D5" s="378"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4519,10 +4525,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="379">
+      <c r="I5" s="387">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="380"/>
+      <c r="J5" s="388"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4545,11 +4551,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="398">
+      <c r="I6" s="389">
         <f>I4*I5/1000000</f>
-        <v>29026.19904</v>
-      </c>
-      <c r="J6" s="399"/>
+        <v>28590.806054399996</v>
+      </c>
+      <c r="J6" s="390"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4558,11 +4564,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>0.1831528128320862</v>
+        <v>0.18594194196150884</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>1.3917082269136124E-3</v>
+        <v>1.4129017532117892E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4589,11 +4595,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>2.8022946722107172</v>
+        <v>2.7602602521275563</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.35685040902964882</v>
+        <v>0.36228467921791757</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4612,41 +4618,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.21937505308430244</v>
+        <v>0.21608442728803789</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>0.47609076001414941</v>
+        <v>0.38995531160010344</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="311" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="410">
+      <c r="C11" s="399">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="411"/>
+      <c r="D11" s="400"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="408" t="s">
+      <c r="I11" s="397" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="409"/>
+      <c r="J11" s="398"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="412">
+      <c r="C12" s="353">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="413"/>
+      <c r="D12" s="354"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4715,36 +4721,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>20</v>
-      </c>
-      <c r="C16" s="419">
+        <v>19.7</v>
+      </c>
+      <c r="C16" s="363">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.16861662976477323</v>
-      </c>
-      <c r="E16" s="416">
+        <v>-0.15443312666474432</v>
+      </c>
+      <c r="E16" s="358">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.35</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="G16" s="403" t="s">
+        <v>6.8527918781725899E-2</v>
+      </c>
+      <c r="G16" s="366" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="400">
+      <c r="H16" s="391">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9489088537580672</v>
       </c>
-      <c r="I16" s="403" t="s">
+      <c r="I16" s="366" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>14.051091146241934</v>
+        <v>13.751091146241933</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,19 +4758,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>16.934243095185941</v>
       </c>
-      <c r="C17" s="420"/>
+      <c r="C17" s="364"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="417"/>
+      <c r="E17" s="359"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>7.9720126397841623E-2</v>
       </c>
-      <c r="G17" s="404"/>
-      <c r="H17" s="401"/>
-      <c r="I17" s="404"/>
+      <c r="G17" s="367"/>
+      <c r="H17" s="392"/>
+      <c r="I17" s="367"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>10.985334241427875</v>
@@ -4775,19 +4781,19 @@
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="421"/>
+      <c r="C18" s="365"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.14184449364696902</v>
       </c>
-      <c r="E18" s="418"/>
+      <c r="E18" s="360"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="G18" s="405"/>
-      <c r="H18" s="402"/>
-      <c r="I18" s="405"/>
+      <c r="G18" s="368"/>
+      <c r="H18" s="393"/>
+      <c r="I18" s="368"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>9.0510911462419337</v>
@@ -4821,52 +4827,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="391" t="s">
+      <c r="C21" s="382" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="392"/>
-      <c r="E21" s="392"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="392"/>
-      <c r="H21" s="392"/>
-      <c r="I21" s="392"/>
-      <c r="J21" s="393"/>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="384"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="407" t="s">
+      <c r="C22" s="395" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="358"/>
-      <c r="E22" s="358"/>
-      <c r="F22" s="358"/>
-      <c r="G22" s="407" t="s">
+      <c r="D22" s="396"/>
+      <c r="E22" s="396"/>
+      <c r="F22" s="396"/>
+      <c r="G22" s="395" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="407"/>
-      <c r="I22" s="358"/>
-      <c r="J22" s="358"/>
+      <c r="H22" s="395"/>
+      <c r="I22" s="396"/>
+      <c r="J22" s="396"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="394" t="s">
+      <c r="C23" s="361" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="394" t="s">
+      <c r="D23" s="362"/>
+      <c r="E23" s="362"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="361" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
+      <c r="H23" s="361"/>
+      <c r="I23" s="362"/>
+      <c r="J23" s="362"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4910,191 +4916,200 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="389"/>
-      <c r="D26" s="390"/>
-      <c r="E26" s="425" t="str">
+      <c r="C26" s="380"/>
+      <c r="D26" s="381"/>
+      <c r="E26" s="372" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="426"/>
-      <c r="G26" s="426"/>
-      <c r="H26" s="427"/>
-      <c r="I26" s="406" t="s">
+      <c r="F26" s="373"/>
+      <c r="G26" s="373"/>
+      <c r="H26" s="374"/>
+      <c r="I26" s="394" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="406"/>
+      <c r="J26" s="394"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="415">
+      <c r="C27" s="357">
         <f>C31/D25</f>
         <v>0.1</v>
       </c>
-      <c r="D27" s="378"/>
-      <c r="E27" s="414">
+      <c r="D27" s="356"/>
+      <c r="E27" s="355">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="378"/>
-      <c r="G27" s="423">
+      <c r="F27" s="356"/>
+      <c r="G27" s="370">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="424"/>
-      <c r="I27" s="422">
+      <c r="H27" s="371"/>
+      <c r="I27" s="369">
         <f>C27+E27+G27</f>
         <v>0.1</v>
       </c>
-      <c r="J27" s="422"/>
+      <c r="J27" s="369"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="353">
+      <c r="C28" s="405">
         <v>4000</v>
       </c>
-      <c r="D28" s="358"/>
-      <c r="E28" s="353"/>
-      <c r="F28" s="358"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="380"/>
-      <c r="I28" s="383">
+      <c r="D28" s="396"/>
+      <c r="E28" s="405"/>
+      <c r="F28" s="396"/>
+      <c r="G28" s="387"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="404">
         <f>C28+E28+G28</f>
         <v>4000</v>
       </c>
-      <c r="J28" s="383"/>
+      <c r="J28" s="404"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="357">
+      <c r="C29" s="406">
         <v>15</v>
       </c>
-      <c r="D29" s="358"/>
-      <c r="E29" s="357"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="360"/>
-      <c r="I29" s="381"/>
-      <c r="J29" s="381"/>
+      <c r="D29" s="396"/>
+      <c r="E29" s="406"/>
+      <c r="F29" s="396"/>
+      <c r="G29" s="416"/>
+      <c r="H29" s="417"/>
+      <c r="I29" s="401"/>
+      <c r="J29" s="401"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="355">
+      <c r="C30" s="407">
         <f>C29*$I$5/1000000</f>
         <v>21769.649280000001</v>
       </c>
-      <c r="D30" s="365"/>
-      <c r="E30" s="355">
+      <c r="D30" s="408"/>
+      <c r="E30" s="407">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="365"/>
-      <c r="G30" s="368">
+      <c r="F30" s="408"/>
+      <c r="G30" s="424">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
+      <c r="H30" s="425"/>
+      <c r="I30" s="402"/>
+      <c r="J30" s="402"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="374">
+      <c r="C31" s="411">
         <f>C28*C29</f>
         <v>60000</v>
       </c>
-      <c r="D31" s="375"/>
-      <c r="E31" s="376">
+      <c r="D31" s="412"/>
+      <c r="E31" s="403">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="377"/>
-      <c r="G31" s="370">
+      <c r="F31" s="413"/>
+      <c r="G31" s="426">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="376">
+      <c r="H31" s="427"/>
+      <c r="I31" s="403">
         <f>C31+E31+G31</f>
         <v>60000</v>
       </c>
-      <c r="J31" s="376"/>
+      <c r="J31" s="403"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="372"/>
-      <c r="D32" s="373"/>
-      <c r="E32" s="356">
+      <c r="C32" s="409"/>
+      <c r="D32" s="410"/>
+      <c r="E32" s="414">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>15</v>
       </c>
-      <c r="F32" s="378"/>
+      <c r="F32" s="356"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="356">
+      <c r="I32" s="414">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>15</v>
       </c>
-      <c r="J32" s="356"/>
+      <c r="J32" s="414"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="366"/>
-      <c r="D33" s="367"/>
-      <c r="E33" s="355">
+      <c r="C33" s="422"/>
+      <c r="D33" s="423"/>
+      <c r="E33" s="407">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>21769.649280000001</v>
       </c>
-      <c r="F33" s="365"/>
+      <c r="F33" s="408"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="355">
+      <c r="I33" s="407">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>21769.649280000001</v>
       </c>
-      <c r="J33" s="355"/>
+      <c r="J33" s="407"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="361">
+      <c r="C35" s="418">
         <f>C29</f>
         <v>15</v>
       </c>
-      <c r="D35" s="362"/>
-      <c r="G35" s="363" t="s">
+      <c r="D35" s="419"/>
+      <c r="G35" s="420" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="364"/>
-      <c r="I35" s="361">
+      <c r="H35" s="421"/>
+      <c r="I35" s="418">
         <v>19</v>
       </c>
-      <c r="J35" s="362"/>
+      <c r="J35" s="419"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="353">
+      <c r="C36" s="405">
         <f>C28</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="354"/>
+      <c r="D36" s="415"/>
+      <c r="G36" s="445" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="445"/>
+      <c r="I36" s="434">
+        <f>IF(C26="",0,I35/C29-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="435"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6027,17 +6042,35 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+  <mergeCells count="54">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6054,76 +6087,65 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9292,7 +9314,7 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:I8"/>
     </sheetView>
   </sheetViews>
@@ -10316,7 +10338,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="375"/>
+      <c r="E53" s="412"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10335,7 +10357,7 @@
       <c r="D54" s="438">
         <v>0</v>
       </c>
-      <c r="E54" s="358"/>
+      <c r="E54" s="396"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10349,7 +10371,7 @@
       <c r="D55" s="438">
         <v>0</v>
       </c>
-      <c r="E55" s="358"/>
+      <c r="E55" s="396"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10413,7 +10435,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="436">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2406518.8170000017</v>
+        <v>1971125.8313999996</v>
       </c>
       <c r="E60" s="437"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729C72D-E202-4734-AE93-E83B987F16A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE1137-CF26-4570-A697-C8DA17CCF963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3994,6 +3994,13 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4006,10 +4013,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4035,9 +4038,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4047,6 +4047,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4059,8 +4066,22 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4101,22 +4122,25 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4141,31 +4165,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4190,20 +4191,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4432,8 +4432,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:J36"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5101,15 +5101,15 @@
         <v>4000</v>
       </c>
       <c r="D36" s="415"/>
-      <c r="G36" s="445" t="s">
+      <c r="G36" s="428" t="s">
         <v>333</v>
       </c>
-      <c r="H36" s="445"/>
-      <c r="I36" s="434">
+      <c r="H36" s="428"/>
+      <c r="I36" s="429">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="435"/>
+      <c r="J36" s="430"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6098,54 +6098,49 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E26:H26"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="17" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
+  <conditionalFormatting sqref="I35:J36">
+    <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(I35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9269,14 +9264,14 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="13" priority="3">
-      <formula>LEN(TRIM(C7))=0</formula>
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>$C$49="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="12" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
+      <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
@@ -9284,9 +9279,9 @@
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9315,7 +9310,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9429,7 +9424,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>14.565271891693065</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10321,11 +10316,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="428">
+      <c r="D52" s="431">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="429"/>
+      <c r="E52" s="432"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10334,7 +10329,7 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="431">
+      <c r="D53" s="434">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
@@ -10354,7 +10349,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="438">
+      <c r="D54" s="439">
         <v>0</v>
       </c>
       <c r="E54" s="396"/>
@@ -10368,7 +10363,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="438">
+      <c r="D55" s="439">
         <v>0</v>
       </c>
       <c r="E55" s="396"/>
@@ -10386,8 +10381,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="430"/>
-      <c r="E57" s="430"/>
+      <c r="D57" s="433"/>
+      <c r="E57" s="433"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10433,11 +10428,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="436">
+      <c r="D60" s="437">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>1971125.8313999996</v>
       </c>
-      <c r="E60" s="437"/>
+      <c r="E60" s="438"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10454,20 +10449,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="434">
+      <c r="D63" s="429">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>1.3669532590180158</v>
       </c>
-      <c r="E63" s="435"/>
+      <c r="E63" s="430"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="432">
+      <c r="D64" s="435">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E64" s="433"/>
+      <c r="E64" s="436"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10476,10 +10471,10 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="432">
+      <c r="D65" s="435">
         <v>0.15</v>
       </c>
-      <c r="E65" s="433"/>
+      <c r="E65" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12010,16 +12005,46 @@
     <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I15 I17:I20 G18:H20 G12:I13 H14:H17">
-    <cfRule type="containsBlanks" dxfId="9" priority="14">
-      <formula>LEN(TRIM(G12))=0</formula>
+  <conditionalFormatting sqref="E21:E23">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
+      <formula>LEN(TRIM(G14))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="2">
+      <formula>LEN(TRIM(G14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 I23">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(G23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H20 G12:I13 H14:H17">
     <cfRule type="containsBlanks" priority="15">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 I16 I14">
-    <cfRule type="containsBlanks" dxfId="8" priority="12">
+  <conditionalFormatting sqref="G18:H20">
+    <cfRule type="containsBlanks" dxfId="6" priority="14">
+      <formula>LEN(TRIM(G18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:J23">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(G12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:J17">
+    <cfRule type="containsBlanks" dxfId="4" priority="7">
+      <formula>LEN(TRIM(H14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12 I14:I20">
+    <cfRule type="containsBlanks" dxfId="3" priority="12">
       <formula>LEN(TRIM(I12))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="13">
@@ -12027,39 +12052,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J20">
-    <cfRule type="containsBlanks" dxfId="7" priority="10">
+    <cfRule type="containsBlanks" dxfId="2" priority="10">
       <formula>LEN(TRIM(J12))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
       <formula>LEN(TRIM(J12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 G23 I23 E23">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(E21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:J13 G23:J23 J22 G18:J21 H14:J17">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
-      <formula>LEN(TRIM(G12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:I22">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(G22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G14))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12075,8 +12072,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12480,7 +12477,7 @@
         <v>239</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>5.9489088537580672</v>
       </c>
     </row>
@@ -12496,7 +12493,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E20" s="441" t="str">
+      <c r="E20" s="442" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12519,7 +12516,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-10.005297614055085</v>
       </c>
-      <c r="E21" s="441"/>
+      <c r="E21" s="442"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>11.676602903912285</v>
@@ -12541,11 +12538,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="444" t="s">
+      <c r="E23" s="445" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="444"/>
-      <c r="G23" s="444"/>
+      <c r="F23" s="445"/>
+      <c r="G23" s="445"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12586,7 +12583,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>7.5746166814402116</v>
       </c>
-      <c r="F25" s="442">
+      <c r="F25" s="443">
         <f ca="1">SUM(C15:F15)</f>
         <v>2.2430606322888678</v>
       </c>
@@ -12611,7 +12608,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>12.624361135733688</v>
       </c>
-      <c r="F26" s="443"/>
+      <c r="F26" s="444"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>20.816330621780622</v>
@@ -12673,10 +12670,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="439" t="s">
+      <c r="C31" s="440" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="440"/>
+      <c r="D31" s="441"/>
       <c r="E31" s="30" t="s">
         <v>219</v>
       </c>
@@ -13631,14 +13628,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE1137-CF26-4570-A697-C8DA17CCF963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{154DF4F7-D50F-4E8C-9E68-F84E9693721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="348">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1170,12 +1170,72 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1200,6 +1260,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -2909,7 +2970,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3803,6 +3864,24 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4046,7 +4125,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4187,6 +4266,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4432,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4477,33 +4566,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="375" t="s">
+      <c r="C3" s="383" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="376"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="385" t="s">
+      <c r="I3" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="386"/>
+      <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="385" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="378"/>
+      <c r="D4" s="386"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4514,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="379">
+      <c r="C5" s="387">
         <v>44956</v>
       </c>
-      <c r="D5" s="378"/>
+      <c r="D5" s="386"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4525,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="387">
+      <c r="I5" s="395">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="388"/>
+      <c r="J5" s="396"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4551,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="389">
+      <c r="I6" s="397">
         <f>I4*I5/1000000</f>
-        <v>28590.806054399996</v>
-      </c>
-      <c r="J6" s="390"/>
+        <v>29026.19904</v>
+      </c>
+      <c r="J6" s="398"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4564,11 +4653,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>0.18594194196150884</v>
+        <v>0.1831528128320862</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>1.4129017532117892E-3</v>
+        <v>1.3917082269136124E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4595,11 +4684,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>2.7602602521275563</v>
+        <v>2.8022946722107172</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.36228467921791757</v>
+        <v>0.35685040902964882</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4618,41 +4707,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.21608442728803789</v>
+        <v>0.21937505308430244</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>0.38995531160010344</v>
+        <v>0.47609076001414941</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="311" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="399">
+      <c r="C11" s="407">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="400"/>
+      <c r="D11" s="408"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="397" t="s">
+      <c r="I11" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="398"/>
+      <c r="J11" s="406"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="353">
+      <c r="C12" s="361">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="354"/>
+      <c r="D12" s="362"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4721,36 +4810,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>19.7</v>
-      </c>
-      <c r="C16" s="363">
+        <v>20</v>
+      </c>
+      <c r="C16" s="371">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.15443312666474432</v>
-      </c>
-      <c r="E16" s="358">
+        <v>-0.16861662976477323</v>
+      </c>
+      <c r="E16" s="366">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.35</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.8527918781725899E-2</v>
-      </c>
-      <c r="G16" s="366" t="s">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G16" s="374" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="391">
+      <c r="H16" s="399">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9489088537580672</v>
       </c>
-      <c r="I16" s="366" t="s">
+      <c r="I16" s="374" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>13.751091146241933</v>
+        <v>14.051091146241934</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4758,19 +4847,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>16.934243095185941</v>
       </c>
-      <c r="C17" s="364"/>
+      <c r="C17" s="372"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="359"/>
+      <c r="E17" s="367"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>7.9720126397841623E-2</v>
       </c>
-      <c r="G17" s="367"/>
-      <c r="H17" s="392"/>
-      <c r="I17" s="367"/>
+      <c r="G17" s="375"/>
+      <c r="H17" s="400"/>
+      <c r="I17" s="375"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>10.985334241427875</v>
@@ -4779,24 +4868,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="350">
         <f>C35</f>
-        <v>15</v>
-      </c>
-      <c r="C18" s="365"/>
+        <v>16.5</v>
+      </c>
+      <c r="C18" s="373"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.14184449364696902</v>
-      </c>
-      <c r="E18" s="360"/>
+        <v>2.8949539679062747E-2</v>
+      </c>
+      <c r="E18" s="368"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="G18" s="368"/>
-      <c r="H18" s="393"/>
-      <c r="I18" s="368"/>
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="G18" s="376"/>
+      <c r="H18" s="401"/>
+      <c r="I18" s="376"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>9.0510911462419337</v>
+        <v>10.551091146241934</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4827,52 +4916,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="390" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="383"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="383"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="383"/>
-      <c r="I21" s="383"/>
-      <c r="J21" s="384"/>
+      <c r="D21" s="391"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="391"/>
+      <c r="H21" s="391"/>
+      <c r="I21" s="391"/>
+      <c r="J21" s="392"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="395" t="s">
+      <c r="C22" s="403" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="396"/>
-      <c r="E22" s="396"/>
-      <c r="F22" s="396"/>
-      <c r="G22" s="395" t="s">
+      <c r="D22" s="404"/>
+      <c r="E22" s="404"/>
+      <c r="F22" s="404"/>
+      <c r="G22" s="403" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="395"/>
-      <c r="I22" s="396"/>
-      <c r="J22" s="396"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="404"/>
+      <c r="J22" s="404"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="361" t="s">
+      <c r="C23" s="369" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="362"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="362"/>
-      <c r="G23" s="361" t="s">
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="369" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="361"/>
-      <c r="I23" s="362"/>
-      <c r="J23" s="362"/>
+      <c r="H23" s="369"/>
+      <c r="I23" s="370"/>
+      <c r="J23" s="370"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4916,229 +5005,363 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="380"/>
-      <c r="D26" s="381"/>
-      <c r="E26" s="372" t="str">
+      <c r="C26" s="388"/>
+      <c r="D26" s="389"/>
+      <c r="E26" s="380" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="373"/>
-      <c r="G26" s="373"/>
-      <c r="H26" s="374"/>
-      <c r="I26" s="394" t="s">
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="382"/>
+      <c r="I26" s="402" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="394"/>
+      <c r="J26" s="402"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="357">
+      <c r="C27" s="365">
         <f>C31/D25</f>
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="356"/>
-      <c r="E27" s="355">
+        <v>0.11</v>
+      </c>
+      <c r="D27" s="364"/>
+      <c r="E27" s="363">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="356"/>
-      <c r="G27" s="370">
+      <c r="F27" s="364"/>
+      <c r="G27" s="378">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="371"/>
-      <c r="I27" s="369">
+      <c r="H27" s="379"/>
+      <c r="I27" s="377">
         <f>C27+E27+G27</f>
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="369"/>
+        <v>0.11</v>
+      </c>
+      <c r="J27" s="377"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="405">
+      <c r="C28" s="413">
         <v>4000</v>
       </c>
-      <c r="D28" s="396"/>
-      <c r="E28" s="405"/>
-      <c r="F28" s="396"/>
-      <c r="G28" s="387"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="404">
+      <c r="D28" s="404"/>
+      <c r="E28" s="413"/>
+      <c r="F28" s="404"/>
+      <c r="G28" s="395"/>
+      <c r="H28" s="396"/>
+      <c r="I28" s="412">
         <f>C28+E28+G28</f>
         <v>4000</v>
       </c>
-      <c r="J28" s="404"/>
+      <c r="J28" s="412"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="406">
-        <v>15</v>
-      </c>
-      <c r="D29" s="396"/>
-      <c r="E29" s="406"/>
-      <c r="F29" s="396"/>
-      <c r="G29" s="416"/>
-      <c r="H29" s="417"/>
-      <c r="I29" s="401"/>
-      <c r="J29" s="401"/>
+      <c r="C29" s="414">
+        <v>16.5</v>
+      </c>
+      <c r="D29" s="404"/>
+      <c r="E29" s="414"/>
+      <c r="F29" s="404"/>
+      <c r="G29" s="424"/>
+      <c r="H29" s="425"/>
+      <c r="I29" s="409"/>
+      <c r="J29" s="409"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="407">
+      <c r="C30" s="415">
         <f>C29*$I$5/1000000</f>
-        <v>21769.649280000001</v>
-      </c>
-      <c r="D30" s="408"/>
-      <c r="E30" s="407">
+        <v>23946.614207999999</v>
+      </c>
+      <c r="D30" s="416"/>
+      <c r="E30" s="415">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="408"/>
-      <c r="G30" s="424">
+      <c r="F30" s="416"/>
+      <c r="G30" s="432">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="425"/>
-      <c r="I30" s="402"/>
-      <c r="J30" s="402"/>
+      <c r="H30" s="433"/>
+      <c r="I30" s="410"/>
+      <c r="J30" s="410"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="411">
+      <c r="C31" s="419">
         <f>C28*C29</f>
-        <v>60000</v>
-      </c>
-      <c r="D31" s="412"/>
-      <c r="E31" s="403">
+        <v>66000</v>
+      </c>
+      <c r="D31" s="420"/>
+      <c r="E31" s="411">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="413"/>
-      <c r="G31" s="426">
+      <c r="F31" s="421"/>
+      <c r="G31" s="434">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="427"/>
-      <c r="I31" s="403">
+      <c r="H31" s="435"/>
+      <c r="I31" s="411">
         <f>C31+E31+G31</f>
-        <v>60000</v>
-      </c>
-      <c r="J31" s="403"/>
+        <v>66000</v>
+      </c>
+      <c r="J31" s="411"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="409"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="414">
+      <c r="C32" s="417"/>
+      <c r="D32" s="418"/>
+      <c r="E32" s="422">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>15</v>
-      </c>
-      <c r="F32" s="356"/>
+        <v>16.5</v>
+      </c>
+      <c r="F32" s="364"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="414">
+      <c r="I32" s="422">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>15</v>
-      </c>
-      <c r="J32" s="414"/>
+        <v>16.5</v>
+      </c>
+      <c r="J32" s="422"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="422"/>
-      <c r="D33" s="423"/>
-      <c r="E33" s="407">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="415">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>21769.649280000001</v>
-      </c>
-      <c r="F33" s="408"/>
+        <v>23946.614207999999</v>
+      </c>
+      <c r="F33" s="416"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="407">
+      <c r="I33" s="415">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>21769.649280000001</v>
-      </c>
-      <c r="J33" s="407"/>
+        <v>23946.614207999999</v>
+      </c>
+      <c r="J33" s="415"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="418">
+      <c r="C35" s="426">
         <f>C29</f>
-        <v>15</v>
-      </c>
-      <c r="D35" s="419"/>
-      <c r="G35" s="420" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="D35" s="427"/>
+      <c r="G35" s="428" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="421"/>
-      <c r="I35" s="418">
+      <c r="H35" s="429"/>
+      <c r="I35" s="426">
         <v>19</v>
       </c>
-      <c r="J35" s="419"/>
+      <c r="J35" s="427"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="405">
+      <c r="C36" s="413">
         <f>C28</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="415"/>
-      <c r="G36" s="428" t="s">
+      <c r="D36" s="423"/>
+      <c r="G36" s="436" t="s">
         <v>333</v>
       </c>
-      <c r="H36" s="428"/>
-      <c r="I36" s="429">
+      <c r="H36" s="436"/>
+      <c r="I36" s="437">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="430"/>
+      <c r="J36" s="438"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" s="344" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F39" s="214">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.51</v>
+      </c>
+      <c r="G39" s="353"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" s="214">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" s="354"/>
+      <c r="F41" s="355">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.61182823129251696</v>
+      </c>
+      <c r="G41" s="353" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="354">
+        <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>So-so</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="356">
+        <v>0.6</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F45" s="355">
+        <f>I35/C29-1</f>
+        <v>0.1515151515151516</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F46" s="355">
+        <f ca="1">D14/C29-1</f>
+        <v>-8.0124716827391085E-2</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F48" s="214">
+        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.56436564625850338</v>
+      </c>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E49" s="357">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>1.8909914133182346</v>
+      </c>
+      <c r="F49" s="358">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>1.8909914133182346</v>
+      </c>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.16699606165764269</v>
+      </c>
+      <c r="F50" s="359">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.16699606165764269</v>
+      </c>
+      <c r="G50" s="360" t="s">
+        <v>347</v>
+      </c>
+      <c r="H50" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6099,51 +6322,56 @@
     <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="17" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6155,6 +6383,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{5F6B8245-3B4E-49E9-8AA3-051FA4D80382}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10316,11 +10547,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="431">
+      <c r="D52" s="439">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="432"/>
+      <c r="E52" s="440"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10329,11 +10560,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="434">
+      <c r="D53" s="442">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="412"/>
+      <c r="E53" s="420"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10349,10 +10580,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="439">
+      <c r="D54" s="447">
         <v>0</v>
       </c>
-      <c r="E54" s="396"/>
+      <c r="E54" s="404"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10363,10 +10594,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="439">
+      <c r="D55" s="447">
         <v>0</v>
       </c>
-      <c r="E55" s="396"/>
+      <c r="E55" s="404"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10381,8 +10612,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="433"/>
-      <c r="E57" s="433"/>
+      <c r="D57" s="441"/>
+      <c r="E57" s="441"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10428,11 +10659,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="437">
+      <c r="D60" s="445">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>1971125.8313999996</v>
-      </c>
-      <c r="E60" s="438"/>
+        <v>2406518.8170000017</v>
+      </c>
+      <c r="E60" s="446"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10449,20 +10680,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="429">
+      <c r="D63" s="437">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>1.3669532590180158</v>
       </c>
-      <c r="E63" s="430"/>
+      <c r="E63" s="438"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="435">
+      <c r="D64" s="443">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E64" s="436"/>
+      <c r="E64" s="444"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10471,10 +10702,10 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="435">
+      <c r="D65" s="443">
         <v>0.15</v>
       </c>
-      <c r="E65" s="436"/>
+      <c r="E65" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12072,7 +12303,7 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -12493,7 +12724,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E20" s="442" t="str">
+      <c r="E20" s="450" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12516,7 +12747,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-10.005297614055085</v>
       </c>
-      <c r="E21" s="442"/>
+      <c r="E21" s="450"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>11.676602903912285</v>
@@ -12538,11 +12769,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="445" t="s">
+      <c r="E23" s="453" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="445"/>
-      <c r="G23" s="445"/>
+      <c r="F23" s="453"/>
+      <c r="G23" s="453"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12583,7 +12814,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>7.5746166814402116</v>
       </c>
-      <c r="F25" s="443">
+      <c r="F25" s="451">
         <f ca="1">SUM(C15:F15)</f>
         <v>2.2430606322888678</v>
       </c>
@@ -12608,7 +12839,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>12.624361135733688</v>
       </c>
-      <c r="F26" s="444"/>
+      <c r="F26" s="452"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>20.816330621780622</v>
@@ -12670,10 +12901,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="440" t="s">
+      <c r="C31" s="448" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="441"/>
+      <c r="D31" s="449"/>
       <c r="E31" s="30" t="s">
         <v>219</v>
       </c>

--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{154DF4F7-D50F-4E8C-9E68-F84E9693721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102842E8-1393-478C-826F-DDC5237A7C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1186,13 +1186,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1229,6 +1223,12 @@
   </si>
   <si>
     <t>capped at</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4522,7 +4522,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E42" s="354">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5267,7 +5267,7 @@
         <v>So-so</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F43" s="356">
         <v>0.6</v>
@@ -5288,7 +5288,7 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F45" s="355">
         <f>I35/C29-1</f>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F46" s="355">
         <f ca="1">D14/C29-1</f>
@@ -5307,7 +5307,7 @@
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F48" s="214">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E49" s="357">
         <f ca="1">F45/ABS(F46)</f>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5342,7 +5342,7 @@
         <v>0.16699606165764269</v>
       </c>
       <c r="G50" s="360" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -9541,7 +9541,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>21138724.050000012</v>
       </c>
       <c r="E6" s="14">
@@ -9655,7 +9655,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>14.565271891693065</v>
       </c>
       <c r="E7" s="49" t="str">

--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102842E8-1393-478C-826F-DDC5237A7C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A51E85-83FA-4283-8886-DD7C424E134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3882,66 +3882,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3968,16 +3980,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3995,13 +4005,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4014,72 +4032,54 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4566,33 +4566,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="383" t="s">
+      <c r="C3" s="395" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="384"/>
+      <c r="D3" s="396"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="393" t="s">
+      <c r="I3" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="394"/>
+      <c r="J3" s="408"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="385" t="s">
+      <c r="C4" s="397" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="386"/>
+      <c r="D4" s="398"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4603,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="387">
+      <c r="C5" s="399">
         <v>44956</v>
       </c>
-      <c r="D5" s="386"/>
+      <c r="D5" s="398"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4614,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="395">
+      <c r="I5" s="390">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="396"/>
+      <c r="J5" s="391"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4640,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="397">
+      <c r="I6" s="409">
         <f>I4*I5/1000000</f>
-        <v>29026.19904</v>
-      </c>
-      <c r="J6" s="398"/>
+        <v>29171.330035200001</v>
+      </c>
+      <c r="J6" s="410"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4653,11 +4653,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>0.1831528128320862</v>
+        <v>0.18224160480804596</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>1.3917082269136124E-3</v>
+        <v>1.3847843053866789E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4684,11 +4684,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>2.8022946722107172</v>
+        <v>2.8163061455717711</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.35685040902964882</v>
+        <v>0.355075033860347</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4707,41 +4707,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.21937505308430244</v>
+        <v>0.22047192834972398</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>0.47609076001414941</v>
+        <v>0.50480257615216473</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="311" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="407">
+      <c r="C11" s="421">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="408"/>
+      <c r="D11" s="422"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="405" t="s">
+      <c r="I11" s="419" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="406"/>
+      <c r="J11" s="420"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="361">
+      <c r="C12" s="423">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="362"/>
+      <c r="D12" s="424"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4810,36 +4810,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>20</v>
-      </c>
-      <c r="C16" s="371">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C16" s="430">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.16861662976477323</v>
-      </c>
-      <c r="E16" s="366">
+        <v>-0.17325037787539635</v>
+      </c>
+      <c r="E16" s="427">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.35</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="G16" s="374" t="s">
+        <v>6.7164179104477612E-2</v>
+      </c>
+      <c r="G16" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="399">
+      <c r="H16" s="411">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9489088537580672</v>
       </c>
-      <c r="I16" s="374" t="s">
+      <c r="I16" s="414" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>14.051091146241934</v>
+        <v>14.151091146241935</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4847,19 +4847,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>16.934243095185941</v>
       </c>
-      <c r="C17" s="372"/>
+      <c r="C17" s="431"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="367"/>
+      <c r="E17" s="428"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>7.9720126397841623E-2</v>
       </c>
-      <c r="G17" s="375"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="375"/>
+      <c r="G17" s="415"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="415"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>10.985334241427875</v>
@@ -4870,19 +4870,19 @@
         <f>C35</f>
         <v>16.5</v>
       </c>
-      <c r="C18" s="373"/>
+      <c r="C18" s="432"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>2.8949539679062747E-2</v>
       </c>
-      <c r="E18" s="368"/>
+      <c r="E18" s="429"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="G18" s="376"/>
-      <c r="H18" s="401"/>
-      <c r="I18" s="376"/>
+      <c r="G18" s="416"/>
+      <c r="H18" s="413"/>
+      <c r="I18" s="416"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>10.551091146241934</v>
@@ -4916,52 +4916,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="390" t="s">
+      <c r="C21" s="402" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="391"/>
-      <c r="J21" s="392"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="403"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="403"/>
+      <c r="J21" s="404"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="403" t="s">
+      <c r="C22" s="418" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="404"/>
-      <c r="E22" s="404"/>
-      <c r="F22" s="404"/>
-      <c r="G22" s="403" t="s">
+      <c r="D22" s="366"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="366"/>
+      <c r="G22" s="418" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="403"/>
-      <c r="I22" s="404"/>
-      <c r="J22" s="404"/>
+      <c r="H22" s="418"/>
+      <c r="I22" s="366"/>
+      <c r="J22" s="366"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="369" t="s">
+      <c r="C23" s="405" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="370"/>
-      <c r="E23" s="370"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="369" t="s">
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="406"/>
+      <c r="G23" s="405" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="369"/>
-      <c r="I23" s="370"/>
-      <c r="J23" s="370"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="406"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5005,200 +5005,200 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="388"/>
-      <c r="D26" s="389"/>
-      <c r="E26" s="380" t="str">
+      <c r="C26" s="400"/>
+      <c r="D26" s="401"/>
+      <c r="E26" s="436" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="381"/>
-      <c r="G26" s="381"/>
-      <c r="H26" s="382"/>
-      <c r="I26" s="402" t="s">
+      <c r="F26" s="437"/>
+      <c r="G26" s="437"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="417" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="402"/>
+      <c r="J26" s="417"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="365">
+      <c r="C27" s="426">
         <f>C31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="D27" s="364"/>
-      <c r="E27" s="363">
+      <c r="D27" s="389"/>
+      <c r="E27" s="425">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="364"/>
-      <c r="G27" s="378">
+      <c r="F27" s="389"/>
+      <c r="G27" s="434">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="379"/>
-      <c r="I27" s="377">
+      <c r="H27" s="435"/>
+      <c r="I27" s="433">
         <f>C27+E27+G27</f>
         <v>0.11</v>
       </c>
-      <c r="J27" s="377"/>
+      <c r="J27" s="433"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="413">
+      <c r="C28" s="361">
         <v>4000</v>
       </c>
-      <c r="D28" s="404"/>
-      <c r="E28" s="413"/>
-      <c r="F28" s="404"/>
-      <c r="G28" s="395"/>
-      <c r="H28" s="396"/>
-      <c r="I28" s="412">
+      <c r="D28" s="366"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="390"/>
+      <c r="H28" s="391"/>
+      <c r="I28" s="394">
         <f>C28+E28+G28</f>
         <v>4000</v>
       </c>
-      <c r="J28" s="412"/>
+      <c r="J28" s="394"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="414">
+      <c r="C29" s="365">
         <v>16.5</v>
       </c>
-      <c r="D29" s="404"/>
-      <c r="E29" s="414"/>
-      <c r="F29" s="404"/>
-      <c r="G29" s="424"/>
-      <c r="H29" s="425"/>
-      <c r="I29" s="409"/>
-      <c r="J29" s="409"/>
+      <c r="D29" s="366"/>
+      <c r="E29" s="365"/>
+      <c r="F29" s="366"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="368"/>
+      <c r="I29" s="392"/>
+      <c r="J29" s="392"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="415">
+      <c r="C30" s="363">
         <f>C29*$I$5/1000000</f>
         <v>23946.614207999999</v>
       </c>
-      <c r="D30" s="416"/>
-      <c r="E30" s="415">
+      <c r="D30" s="373"/>
+      <c r="E30" s="363">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="416"/>
-      <c r="G30" s="432">
+      <c r="F30" s="373"/>
+      <c r="G30" s="376">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="433"/>
-      <c r="I30" s="410"/>
-      <c r="J30" s="410"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="393"/>
+      <c r="J30" s="393"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="419">
+      <c r="C31" s="385">
         <f>C28*C29</f>
         <v>66000</v>
       </c>
-      <c r="D31" s="420"/>
-      <c r="E31" s="411">
+      <c r="D31" s="386"/>
+      <c r="E31" s="387">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="421"/>
-      <c r="G31" s="434">
+      <c r="F31" s="388"/>
+      <c r="G31" s="378">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="435"/>
-      <c r="I31" s="411">
+      <c r="H31" s="379"/>
+      <c r="I31" s="387">
         <f>C31+E31+G31</f>
         <v>66000</v>
       </c>
-      <c r="J31" s="411"/>
+      <c r="J31" s="387"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="417"/>
-      <c r="D32" s="418"/>
-      <c r="E32" s="422">
+      <c r="C32" s="383"/>
+      <c r="D32" s="384"/>
+      <c r="E32" s="364">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>16.5</v>
       </c>
-      <c r="F32" s="364"/>
+      <c r="F32" s="389"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="422">
+      <c r="I32" s="364">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>16.5</v>
       </c>
-      <c r="J32" s="422"/>
+      <c r="J32" s="364"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="415">
+      <c r="C33" s="374"/>
+      <c r="D33" s="375"/>
+      <c r="E33" s="363">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>23946.614207999999</v>
       </c>
-      <c r="F33" s="416"/>
+      <c r="F33" s="373"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="415">
+      <c r="I33" s="363">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>23946.614207999999</v>
       </c>
-      <c r="J33" s="415"/>
+      <c r="J33" s="363"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="426">
+      <c r="C35" s="369">
         <f>C29</f>
         <v>16.5</v>
       </c>
-      <c r="D35" s="427"/>
-      <c r="G35" s="428" t="s">
+      <c r="D35" s="370"/>
+      <c r="G35" s="371" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="429"/>
-      <c r="I35" s="426">
+      <c r="H35" s="372"/>
+      <c r="I35" s="369">
         <v>19</v>
       </c>
-      <c r="J35" s="427"/>
+      <c r="J35" s="370"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="413">
+      <c r="C36" s="361">
         <f>C28</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="423"/>
-      <c r="G36" s="436" t="s">
+      <c r="D36" s="362"/>
+      <c r="G36" s="380" t="s">
         <v>333</v>
       </c>
-      <c r="H36" s="436"/>
-      <c r="I36" s="437">
+      <c r="H36" s="380"/>
+      <c r="I36" s="381">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="438"/>
+      <c r="J36" s="382"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6266,34 +6266,16 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6310,16 +6292,34 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -10564,7 +10564,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="420"/>
+      <c r="E53" s="386"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10583,7 +10583,7 @@
       <c r="D54" s="447">
         <v>0</v>
       </c>
-      <c r="E54" s="404"/>
+      <c r="E54" s="366"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10597,7 +10597,7 @@
       <c r="D55" s="447">
         <v>0</v>
       </c>
-      <c r="E55" s="404"/>
+      <c r="E55" s="366"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="445">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2406518.8170000017</v>
+        <v>2551649.8122000024</v>
       </c>
       <c r="E60" s="446"/>
       <c r="F60" s="6"/>
@@ -10680,11 +10680,11 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="437">
+      <c r="D63" s="381">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>1.3669532590180158</v>
       </c>
-      <c r="E63" s="438"/>
+      <c r="E63" s="382"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">

--- a/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0683.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A51E85-83FA-4283-8886-DD7C424E134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCC148-82E9-41CA-84E9-FD759C5BDBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="349">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1229,6 +1229,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +2973,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3624,9 +3627,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3882,20 +3882,167 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3912,7 +4059,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3934,152 +4080,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4521,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4550,7 +4550,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="306" t="str">
+      <c r="C2" s="305" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0683.HK : KERRY PPT</v>
       </c>
@@ -4566,27 +4566,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="395" t="s">
+      <c r="C3" s="382" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="396"/>
+      <c r="D3" s="383"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="407" t="s">
+      <c r="I3" s="392" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="408"/>
+      <c r="J3" s="393"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="397" t="s">
+      <c r="C4" s="384" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="398"/>
+      <c r="D4" s="385"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4603,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="399">
+      <c r="C5" s="386">
         <v>44956</v>
       </c>
-      <c r="D5" s="398"/>
+      <c r="D5" s="385"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4614,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="390">
+      <c r="I5" s="394">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="391"/>
+      <c r="J5" s="395"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4625,26 +4625,26 @@
       <c r="B6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>44985</v>
       </c>
-      <c r="E6" s="349">
-        <f>Data!C3</f>
+      <c r="E6" s="348">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44561</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="409">
+      <c r="I6" s="396">
         <f>I4*I5/1000000</f>
         <v>29171.330035200001</v>
       </c>
-      <c r="J6" s="410"/>
+      <c r="J6" s="397"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4676,8 +4676,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="299"/>
-      <c r="D9" s="297"/>
+      <c r="C9" s="298"/>
+      <c r="D9" s="296"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4695,10 +4695,10 @@
       <c r="B10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="298" t="s">
+      <c r="C10" s="297" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="298">
+      <c r="D10" s="297">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4715,33 +4715,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="311" t="s">
+      <c r="B11" s="310" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="421">
+      <c r="C11" s="406">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="422"/>
+      <c r="D11" s="407"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="419" t="s">
+      <c r="I11" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="420"/>
+      <c r="J11" s="405"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="311" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="423">
+      <c r="C12" s="360">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="424"/>
+      <c r="D12" s="361"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4812,14 +4812,14 @@
         <f>I4</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="C16" s="430">
+      <c r="C16" s="370">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.17325037787539635</v>
       </c>
-      <c r="E16" s="427">
+      <c r="E16" s="365">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.35</v>
       </c>
@@ -4827,14 +4827,14 @@
         <f>E16/B16</f>
         <v>6.7164179104477612E-2</v>
       </c>
-      <c r="G16" s="414" t="s">
+      <c r="G16" s="373" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="411">
+      <c r="H16" s="398">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>5.9489088537580672</v>
       </c>
-      <c r="I16" s="414" t="s">
+      <c r="I16" s="373" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4843,46 +4843,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
         <v>16.934243095185941</v>
       </c>
-      <c r="C17" s="431"/>
-      <c r="D17" s="289">
+      <c r="C17" s="371"/>
+      <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="428"/>
+      <c r="E17" s="366"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>7.9720126397841623E-2</v>
       </c>
-      <c r="G17" s="415"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="415"/>
+      <c r="G17" s="374"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="374"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>10.985334241427875</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="350">
+      <c r="B18" s="349">
         <f>C35</f>
         <v>16.5</v>
       </c>
-      <c r="C18" s="432"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>2.8949539679062747E-2</v>
       </c>
-      <c r="E18" s="429"/>
+      <c r="E18" s="367"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="G18" s="416"/>
-      <c r="H18" s="413"/>
-      <c r="I18" s="416"/>
+      <c r="G18" s="375"/>
+      <c r="H18" s="400"/>
+      <c r="I18" s="375"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>10.551091146241934</v>
@@ -4900,7 +4900,7 @@
       <c r="C20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>312</v>
       </c>
       <c r="E20" s="266" t="s">
@@ -4916,52 +4916,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="402" t="s">
+      <c r="C21" s="389" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="403"/>
-      <c r="H21" s="403"/>
-      <c r="I21" s="403"/>
-      <c r="J21" s="404"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="390"/>
+      <c r="F21" s="390"/>
+      <c r="G21" s="390"/>
+      <c r="H21" s="390"/>
+      <c r="I21" s="390"/>
+      <c r="J21" s="391"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="418" t="s">
+      <c r="C22" s="402" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="366"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="366"/>
-      <c r="G22" s="418" t="s">
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="402" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="418"/>
-      <c r="I22" s="366"/>
-      <c r="J22" s="366"/>
+      <c r="H22" s="402"/>
+      <c r="I22" s="403"/>
+      <c r="J22" s="403"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="405" t="s">
+      <c r="C23" s="368" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
-      <c r="F23" s="406"/>
-      <c r="G23" s="405" t="s">
+      <c r="D23" s="369"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="368" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="405"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="406"/>
+      <c r="H23" s="368"/>
+      <c r="I23" s="369"/>
+      <c r="J23" s="369"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4990,13 +4990,13 @@
         <v>328</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="351">
+      <c r="H25" s="350">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="J25" s="352">
+      <c r="J25" s="351">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>14.902133923763628</v>
       </c>
@@ -5005,207 +5005,207 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="400"/>
-      <c r="D26" s="401"/>
-      <c r="E26" s="436" t="str">
+      <c r="C26" s="387"/>
+      <c r="D26" s="388"/>
+      <c r="E26" s="379" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="437"/>
-      <c r="G26" s="437"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="417" t="s">
+      <c r="F26" s="380"/>
+      <c r="G26" s="380"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="401" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="417"/>
+      <c r="J26" s="401"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="426">
+      <c r="C27" s="364">
         <f>C31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="D27" s="389"/>
-      <c r="E27" s="425">
+      <c r="D27" s="363"/>
+      <c r="E27" s="362">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="389"/>
-      <c r="G27" s="434">
+      <c r="F27" s="363"/>
+      <c r="G27" s="377">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="435"/>
-      <c r="I27" s="433">
+      <c r="H27" s="378"/>
+      <c r="I27" s="376">
         <f>C27+E27+G27</f>
         <v>0.11</v>
       </c>
-      <c r="J27" s="433"/>
+      <c r="J27" s="376"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="361">
+      <c r="C28" s="412">
         <v>4000</v>
       </c>
-      <c r="D28" s="366"/>
-      <c r="E28" s="361"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="391"/>
-      <c r="I28" s="394">
+      <c r="D28" s="403"/>
+      <c r="E28" s="412"/>
+      <c r="F28" s="403"/>
+      <c r="G28" s="394"/>
+      <c r="H28" s="395"/>
+      <c r="I28" s="411">
         <f>C28+E28+G28</f>
         <v>4000</v>
       </c>
-      <c r="J28" s="394"/>
+      <c r="J28" s="411"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="413">
         <v>16.5</v>
       </c>
-      <c r="D29" s="366"/>
-      <c r="E29" s="365"/>
-      <c r="F29" s="366"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="368"/>
-      <c r="I29" s="392"/>
-      <c r="J29" s="392"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="413"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="423"/>
+      <c r="H29" s="424"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="408"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="363">
+      <c r="C30" s="414">
         <f>C29*$I$5/1000000</f>
         <v>23946.614207999999</v>
       </c>
-      <c r="D30" s="373"/>
-      <c r="E30" s="363">
+      <c r="D30" s="415"/>
+      <c r="E30" s="414">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="373"/>
-      <c r="G30" s="376">
+      <c r="F30" s="415"/>
+      <c r="G30" s="431">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="377"/>
-      <c r="I30" s="393"/>
-      <c r="J30" s="393"/>
+      <c r="H30" s="432"/>
+      <c r="I30" s="409"/>
+      <c r="J30" s="409"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="385">
+      <c r="C31" s="418">
         <f>C28*C29</f>
         <v>66000</v>
       </c>
-      <c r="D31" s="386"/>
-      <c r="E31" s="387">
+      <c r="D31" s="419"/>
+      <c r="E31" s="410">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="388"/>
-      <c r="G31" s="378">
+      <c r="F31" s="420"/>
+      <c r="G31" s="433">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="379"/>
-      <c r="I31" s="387">
+      <c r="H31" s="434"/>
+      <c r="I31" s="410">
         <f>C31+E31+G31</f>
         <v>66000</v>
       </c>
-      <c r="J31" s="387"/>
+      <c r="J31" s="410"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="383"/>
-      <c r="D32" s="384"/>
-      <c r="E32" s="364">
+      <c r="C32" s="416"/>
+      <c r="D32" s="417"/>
+      <c r="E32" s="421">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>16.5</v>
       </c>
-      <c r="F32" s="389"/>
+      <c r="F32" s="363"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="364">
+      <c r="I32" s="421">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>16.5</v>
       </c>
-      <c r="J32" s="364"/>
+      <c r="J32" s="421"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="374"/>
-      <c r="D33" s="375"/>
-      <c r="E33" s="363">
+      <c r="C33" s="429"/>
+      <c r="D33" s="430"/>
+      <c r="E33" s="414">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>23946.614207999999</v>
       </c>
-      <c r="F33" s="373"/>
+      <c r="F33" s="415"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="363">
+      <c r="I33" s="414">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>23946.614207999999</v>
       </c>
-      <c r="J33" s="363"/>
+      <c r="J33" s="414"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="369">
+      <c r="C35" s="425">
         <f>C29</f>
         <v>16.5</v>
       </c>
-      <c r="D35" s="370"/>
-      <c r="G35" s="371" t="s">
+      <c r="D35" s="426"/>
+      <c r="G35" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="372"/>
-      <c r="I35" s="369">
+      <c r="H35" s="428"/>
+      <c r="I35" s="425">
         <v>19</v>
       </c>
-      <c r="J35" s="370"/>
+      <c r="J35" s="426"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="361">
+      <c r="C36" s="412">
         <f>C28</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="362"/>
-      <c r="G36" s="380" t="s">
+      <c r="D36" s="422"/>
+      <c r="G36" s="435" t="s">
         <v>333</v>
       </c>
-      <c r="H36" s="380"/>
-      <c r="I36" s="381">
+      <c r="H36" s="435"/>
+      <c r="I36" s="436">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="382"/>
+      <c r="J36" s="437"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G38" s="344" t="s">
+      <c r="G38" s="343" t="s">
         <v>141</v>
       </c>
       <c r="H38" s="133"/>
@@ -5220,7 +5220,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.51</v>
       </c>
-      <c r="G39" s="353"/>
+      <c r="G39" s="352"/>
       <c r="H39" s="116"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -5242,12 +5242,12 @@
       <c r="B41" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E41" s="354"/>
-      <c r="F41" s="355">
+      <c r="E41" s="353"/>
+      <c r="F41" s="354">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.61182823129251696</v>
       </c>
-      <c r="G41" s="353" t="s">
+      <c r="G41" s="352" t="s">
         <v>338</v>
       </c>
       <c r="H41" s="116"/>
@@ -5258,7 +5258,7 @@
       <c r="B42" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E42" s="354">
+      <c r="E42" s="353">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0.5</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="B43" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F43" s="356">
+      <c r="F43" s="355">
         <v>0.6</v>
       </c>
       <c r="G43" s="116"/>
@@ -5290,7 +5290,7 @@
       <c r="B45" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F45" s="355">
+      <c r="F45" s="354">
         <f>I35/C29-1</f>
         <v>0.1515151515151516</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="B46" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="355">
+      <c r="F46" s="354">
         <f ca="1">D14/C29-1</f>
         <v>-8.0124716827391085E-2</v>
       </c>
@@ -5319,11 +5319,11 @@
       <c r="B49" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E49" s="357">
+      <c r="E49" s="356">
         <f ca="1">F45/ABS(F46)</f>
         <v>1.8909914133182346</v>
       </c>
-      <c r="F49" s="358">
+      <c r="F49" s="357">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>1.8909914133182346</v>
       </c>
@@ -5337,11 +5337,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0.16699606165764269</v>
       </c>
-      <c r="F50" s="359">
+      <c r="F50" s="358">
         <f ca="1">MIN(E50,H50)</f>
         <v>0.16699606165764269</v>
       </c>
-      <c r="G50" s="360" t="s">
+      <c r="G50" s="359" t="s">
         <v>345</v>
       </c>
       <c r="H50" s="78">
@@ -6266,16 +6266,34 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6292,34 +6310,16 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6371,7 +6371,7 @@
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6403,7 +6403,7 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -6495,47 +6495,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7193,7 +7193,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>48012</v>
       </c>
       <c r="D24" s="140">
@@ -7554,7 +7554,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="340" t="str">
+      <c r="M34" s="339" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="339" t="s">
+      <c r="C49" s="338" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8096,9 +8096,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="336"/>
+      <c r="C50" s="335"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="336"/>
+      <c r="E50" s="335"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="337" t="s">
+      <c r="B51" s="336" t="s">
         <v>299</v>
       </c>
       <c r="C51" s="165"/>
@@ -8127,50 +8127,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="338" t="s">
+      <c r="B52" s="337" t="s">
         <v>300</v>
       </c>
-      <c r="C52" s="345" t="str">
+      <c r="C52" s="344" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="345" t="str">
+      <c r="D52" s="344" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="345" t="str">
+      <c r="E52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="345" t="str">
+      <c r="F52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="345" t="str">
+      <c r="G52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="345" t="str">
+      <c r="H52" s="344" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="345" t="str">
+      <c r="I52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="345" t="str">
+      <c r="J52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="345" t="str">
+      <c r="K52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="345" t="str">
+      <c r="L52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="346" t="str">
+      <c r="M52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9541,7 +9541,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9570,7 +9570,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="344" t="s">
+      <c r="K2" s="343" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9579,7 +9579,7 @@
         <v>259</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>128099808</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9588,10 +9588,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>113579020</v>
       </c>
       <c r="K3" s="74"/>
@@ -9601,7 +9601,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>14520788</v>
       </c>
@@ -9689,12 +9689,11 @@
         <v>255</v>
       </c>
       <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="D9" s="271">
         <v>44742</v>
       </c>
-      <c r="E9" s="269" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="290" t="s">
+        <v>348</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10547,11 +10546,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="439">
+      <c r="D52" s="438">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="440"/>
+      <c r="E52" s="439"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10560,11 +10559,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="442">
+      <c r="D53" s="441">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="386"/>
+      <c r="E53" s="419"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10580,10 +10579,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="447">
+      <c r="D54" s="446">
         <v>0</v>
       </c>
-      <c r="E54" s="366"/>
+      <c r="E54" s="403"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10594,10 +10593,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="447">
+      <c r="D55" s="446">
         <v>0</v>
       </c>
-      <c r="E55" s="366"/>
+      <c r="E55" s="403"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10612,8 +10611,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="441"/>
-      <c r="E57" s="441"/>
+      <c r="D57" s="440"/>
+      <c r="E57" s="440"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10659,11 +10658,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="445">
+      <c r="D60" s="444">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>2551649.8122000024</v>
       </c>
-      <c r="E60" s="446"/>
+      <c r="E60" s="445"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10672,7 +10671,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10680,32 +10679,32 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="381">
+      <c r="D63" s="436">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>1.3669532590180158</v>
       </c>
-      <c r="E63" s="382"/>
+      <c r="E63" s="437"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="443">
+      <c r="D64" s="442">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E64" s="444"/>
+      <c r="E64" s="443"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="443">
+      <c r="D65" s="442">
         <v>0.15</v>
       </c>
-      <c r="E65" s="444"/>
+      <c r="E65" s="443"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10719,10 +10718,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{F532338E-C6AC-41CD-B3CC-9DDE086C6053}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10740,8 +10742,8 @@
   </sheetPr>
   <dimension ref="A1:M906"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10774,22 +10776,22 @@
       <c r="B2" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10798,30 +10800,30 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
-        <f>Data!C3</f>
+      <c r="C3" s="277">
+        <f>Dashboard!E6</f>
         <v>44561</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>44926</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="278">
+      <c r="G3" s="277">
         <f>IF(G12="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45291</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278" t="str">
+      <c r="I3" s="277" t="str">
         <f>IF(I19="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="295"/>
+      <c r="J3" s="294"/>
       <c r="L3" s="72" t="s">
         <v>141</v>
       </c>
@@ -10830,7 +10832,7 @@
       <c r="B4" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="347">
+      <c r="C4" s="346">
         <v>4053111</v>
       </c>
       <c r="D4" s="260"/>
@@ -10845,7 +10847,7 @@
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="222"/>
-      <c r="J4" s="287"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
@@ -10854,7 +10856,7 @@
       <c r="B5" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="347">
+      <c r="C5" s="346">
         <v>1291010</v>
       </c>
       <c r="D5" s="260"/>
@@ -10869,16 +10871,16 @@
       </c>
       <c r="H5" s="260"/>
       <c r="I5" s="222"/>
-      <c r="J5" s="287"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="348" t="s">
+      <c r="B6" s="347" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="347">
+      <c r="C6" s="346">
         <f>C4+C5</f>
         <v>5344121</v>
       </c>
@@ -10903,7 +10905,7 @@
         <v>0.44966633382626964</v>
       </c>
       <c r="I6" s="222"/>
-      <c r="J6" s="287"/>
+      <c r="J6" s="286"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
@@ -10912,7 +10914,7 @@
       <c r="B7" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="347">
+      <c r="C7" s="346">
         <v>4584914</v>
       </c>
       <c r="D7" s="260"/>
@@ -10927,7 +10929,7 @@
       </c>
       <c r="H7" s="260"/>
       <c r="I7" s="222"/>
-      <c r="J7" s="287"/>
+      <c r="J7" s="286"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
@@ -10936,7 +10938,7 @@
       <c r="B8" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="347">
+      <c r="C8" s="346">
         <v>3786145</v>
       </c>
       <c r="D8" s="260"/>
@@ -10945,22 +10947,22 @@
         <v>2173204.8000000003</v>
       </c>
       <c r="F8" s="260"/>
-      <c r="G8" s="347">
+      <c r="G8" s="346">
         <f>C8</f>
         <v>3786145</v>
       </c>
       <c r="H8" s="260"/>
       <c r="I8" s="222"/>
-      <c r="J8" s="287"/>
+      <c r="J8" s="286"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="347" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="347">
+      <c r="C9" s="346">
         <f>C7+C8</f>
         <v>8371059</v>
       </c>
@@ -10985,16 +10987,16 @@
         <v>0.4428900614312265</v>
       </c>
       <c r="I9" s="222"/>
-      <c r="J9" s="287"/>
+      <c r="J9" s="286"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="348" t="s">
+      <c r="B10" s="347" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="347">
+      <c r="C10" s="346">
         <v>1611584</v>
       </c>
       <c r="D10" s="260">
@@ -11018,7 +11020,7 @@
         <v>0.107443604742504</v>
       </c>
       <c r="I10" s="222"/>
-      <c r="J10" s="287"/>
+      <c r="J10" s="286"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
       <c r="M10" s="57"/>
@@ -11043,7 +11045,7 @@
       </c>
       <c r="H11" s="259"/>
       <c r="I11" s="228"/>
-      <c r="J11" s="288"/>
+      <c r="J11" s="287"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74" t="s">
         <v>270</v>
@@ -11067,7 +11069,7 @@
       </c>
       <c r="H12" s="261"/>
       <c r="I12" s="73"/>
-      <c r="J12" s="326"/>
+      <c r="J12" s="325"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
       <c r="M12" s="57"/>
@@ -11086,16 +11088,16 @@
         <v>3769329.6</v>
       </c>
       <c r="F13" s="262"/>
-      <c r="G13" s="282">
+      <c r="G13" s="281">
         <f>IF(G11="","",G11*(1-G14))</f>
         <v>5519760.0026666662</v>
       </c>
       <c r="H13" s="262"/>
-      <c r="I13" s="282" t="str">
+      <c r="I13" s="281" t="str">
         <f>IF(I11="","",I11*(1-I14))</f>
         <v/>
       </c>
-      <c r="J13" s="327"/>
+      <c r="J13" s="326"/>
       <c r="K13" s="6"/>
       <c r="L13" s="116"/>
       <c r="M13" s="1"/>
@@ -11119,7 +11121,7 @@
       </c>
       <c r="H14" s="186"/>
       <c r="I14" s="73"/>
-      <c r="J14" s="328"/>
+      <c r="J14" s="327"/>
       <c r="K14" s="6"/>
       <c r="L14" s="74"/>
     </row>
@@ -11170,7 +11172,7 @@
       </c>
       <c r="H16" s="189"/>
       <c r="I16" s="65"/>
-      <c r="J16" s="329"/>
+      <c r="J16" s="328"/>
       <c r="K16" s="6"/>
       <c r="L16" s="74"/>
     </row>
@@ -11193,7 +11195,7 @@
       </c>
       <c r="H17" s="263"/>
       <c r="I17" s="76"/>
-      <c r="J17" s="330"/>
+      <c r="J17" s="329"/>
       <c r="K17" s="6"/>
       <c r="L17" s="74"/>
     </row>
@@ -11245,7 +11247,7 @@
         <f>IF(I12="","",IF(ABS(G20+I20)=ABS(G20)+ABS(I20),IF(I20&lt;0,-1,1)*(I20-G20)/G20,"Turn"))</f>
         <v/>
       </c>
-      <c r="J19" s="331"/>
+      <c r="J19" s="330"/>
       <c r="K19" s="6"/>
       <c r="L19" s="77"/>
       <c r="M19" s="78"/>
@@ -11254,103 +11256,103 @@
       <c r="B20" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="318">
+      <c r="C20" s="317">
         <f>C15-C17</f>
         <v>6739664</v>
       </c>
-      <c r="D20" s="319"/>
-      <c r="E20" s="318">
+      <c r="D20" s="318"/>
+      <c r="E20" s="317">
         <f>E15-E17</f>
         <v>1825905.3000000003</v>
       </c>
-      <c r="F20" s="319"/>
-      <c r="G20" s="318">
+      <c r="F20" s="318"/>
+      <c r="G20" s="317">
         <f>IF(G12="","",G15-G17)</f>
         <v>4396241.5439999998</v>
       </c>
-      <c r="H20" s="319"/>
-      <c r="I20" s="318" t="str">
+      <c r="H20" s="318"/>
+      <c r="I20" s="317" t="str">
         <f>IF(I12="","",I15-I17)</f>
         <v/>
       </c>
-      <c r="J20" s="332"/>
+      <c r="J20" s="331"/>
       <c r="K20" s="6"/>
       <c r="L20" s="79"/>
       <c r="M20" s="56"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="314" t="s">
+      <c r="B21" s="313" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="315">
+      <c r="C21" s="314">
         <v>0.25</v>
       </c>
-      <c r="D21" s="316"/>
-      <c r="E21" s="317">
+      <c r="D21" s="315"/>
+      <c r="E21" s="316">
         <f>IF(E20="","",C21)</f>
         <v>0.25</v>
       </c>
-      <c r="F21" s="317"/>
-      <c r="G21" s="317">
+      <c r="F21" s="316"/>
+      <c r="G21" s="316">
         <f>IF(G20="","",E21)</f>
         <v>0.25</v>
       </c>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317" t="str">
+      <c r="H21" s="316"/>
+      <c r="I21" s="316" t="str">
         <f>IF(I20="","",G21)</f>
         <v/>
       </c>
-      <c r="J21" s="333"/>
+      <c r="J21" s="332"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="323" t="s">
+      <c r="B22" s="322" t="s">
         <v>307</v>
       </c>
       <c r="C22" s="264">
         <f>C23/C13</f>
         <v>0.76776041400069894</v>
       </c>
-      <c r="D22" s="325"/>
-      <c r="E22" s="324">
+      <c r="D22" s="324"/>
+      <c r="E22" s="323">
         <f>E23/E13</f>
         <v>0.36330836523290511</v>
       </c>
-      <c r="F22" s="324"/>
-      <c r="G22" s="324">
+      <c r="F22" s="323"/>
+      <c r="G22" s="323">
         <f>IF(G13="","",G23/G13)</f>
         <v>0.59734139825048371</v>
       </c>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324" t="str">
+      <c r="H22" s="323"/>
+      <c r="I22" s="323" t="str">
         <f>IF(I13="","",I23/I13)</f>
         <v/>
       </c>
-      <c r="J22" s="334"/>
+      <c r="J22" s="333"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="320" t="s">
+      <c r="B23" s="319" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="321">
+      <c r="C23" s="320">
         <f>IF(C20&lt;=0,C20,C20*(1-C21))</f>
         <v>5054748</v>
       </c>
-      <c r="D23" s="321"/>
-      <c r="E23" s="322">
+      <c r="D23" s="320"/>
+      <c r="E23" s="321">
         <f>IF(E20="","",IF(E20&lt;=0,E20,E20*(1-E21)))</f>
         <v>1369428.9750000001</v>
       </c>
-      <c r="F23" s="321"/>
-      <c r="G23" s="322">
+      <c r="F23" s="320"/>
+      <c r="G23" s="321">
         <f>IF(G20="","",IF(G20&lt;=0,G20,G20*(1-G21)))</f>
         <v>3297181.1579999998</v>
       </c>
-      <c r="H23" s="321"/>
-      <c r="I23" s="322" t="str">
+      <c r="H23" s="320"/>
+      <c r="I23" s="321" t="str">
         <f>IF(I20="","",IF(I20&lt;=0,I20,I20*(1-I21)))</f>
         <v/>
       </c>
-      <c r="J23" s="335"/>
+      <c r="J23" s="334"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12327,19 +12329,19 @@
       <c r="B2" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 2</v>
       </c>
@@ -12351,19 +12353,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
         <v>44561</v>
       </c>
-      <c r="D3" s="278">
+      <c r="D3" s="277">
         <f>Operation!E3</f>
         <v>44926</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>Operation!G3</f>
         <v>45291</v>
       </c>
-      <c r="F3" s="278" t="str">
+      <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12394,7 +12396,7 @@
         <f>Operation!I23</f>
         <v/>
       </c>
-      <c r="G4" s="302">
+      <c r="G4" s="301">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
@@ -12437,7 +12439,7 @@
       <c r="E6" s="65">
         <v>0.3</v>
       </c>
-      <c r="F6" s="307"/>
+      <c r="F6" s="306"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
       <c r="I6" s="77"/>
@@ -12446,19 +12448,19 @@
       <c r="B7" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="308">
+      <c r="C7" s="307">
         <f>C4*C6</f>
         <v>1516424.4</v>
       </c>
-      <c r="D7" s="308">
+      <c r="D7" s="307">
         <f>D4*D6</f>
         <v>410828.6925</v>
       </c>
-      <c r="E7" s="309">
+      <c r="E7" s="308">
         <f>E4*E6</f>
         <v>989154.34739999985</v>
       </c>
-      <c r="F7" s="309"/>
+      <c r="F7" s="308"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
       <c r="I7" s="56"/>
@@ -12500,19 +12502,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>2.438020627588172</v>
       </c>
-      <c r="D9" s="304">
+      <c r="D9" s="303">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.66050693112038972</v>
       </c>
-      <c r="E9" s="304">
+      <c r="E9" s="303">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>1.5903059215017357</v>
       </c>
-      <c r="F9" s="304" t="str">
+      <c r="F9" s="303" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="305">
+      <c r="G9" s="304">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>1.5903059215017357</v>
       </c>
@@ -12524,16 +12526,16 @@
       <c r="B10" s="234" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="310">
+      <c r="C10" s="309">
         <f>C11/C9</f>
         <v>0.55372788266172157</v>
       </c>
-      <c r="D10" s="310">
+      <c r="D10" s="309">
         <f>D11/D9</f>
         <v>2.0438846837080917</v>
       </c>
-      <c r="E10" s="341"/>
-      <c r="F10" s="341"/>
+      <c r="E10" s="340"/>
+      <c r="F10" s="340"/>
       <c r="G10" s="235"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
@@ -12543,17 +12545,17 @@
       <c r="B11" s="234" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <f>0.4+0.95</f>
         <v>1.35</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <f>0.4+0.95</f>
         <v>1.35</v>
       </c>
-      <c r="E11" s="342"/>
-      <c r="F11" s="342"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="341"/>
+      <c r="F11" s="341"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -12568,8 +12570,8 @@
       <c r="D12" s="236">
         <v>0.95</v>
       </c>
-      <c r="E12" s="343"/>
-      <c r="F12" s="343"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
       <c r="G12" s="230">
         <f>G9*D26</f>
         <v>15.903059215017358</v>
@@ -12724,7 +12726,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E20" s="450" t="str">
+      <c r="E20" s="449" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12747,7 +12749,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-10.005297614055085</v>
       </c>
-      <c r="E21" s="450"/>
+      <c r="E21" s="449"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>11.676602903912285</v>
@@ -12769,11 +12771,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="453" t="s">
+      <c r="E23" s="452" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="453"/>
-      <c r="G23" s="453"/>
+      <c r="F23" s="452"/>
+      <c r="G23" s="452"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12786,7 +12788,7 @@
       <c r="D24" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="303" t="s">
+      <c r="E24" s="302" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="265" t="s">
@@ -12807,14 +12809,14 @@
         <f>1/D25</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D25" s="296">
+      <c r="D25" s="295">
         <v>6</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>7.5746166814402116</v>
       </c>
-      <c r="F25" s="451">
+      <c r="F25" s="450">
         <f ca="1">SUM(C15:F15)</f>
         <v>2.2430606322888678</v>
       </c>
@@ -12825,21 +12827,21 @@
       <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="300" t="s">
+      <c r="B26" s="299" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="301">
+      <c r="C26" s="300">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>0.1</v>
       </c>
-      <c r="D26" s="313">
+      <c r="D26" s="312">
         <v>10</v>
       </c>
       <c r="E26" s="207">
         <f ca="1">G9*D26/G14</f>
         <v>12.624361135733688</v>
       </c>
-      <c r="F26" s="452"/>
+      <c r="F26" s="451"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>20.816330621780622</v>
@@ -12901,10 +12903,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="448" t="s">
+      <c r="C31" s="447" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="449"/>
+      <c r="D31" s="448"/>
       <c r="E31" s="30" t="s">
         <v>219</v>
       </c>
@@ -12958,7 +12960,7 @@
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.2410826939120104</v>
       </c>
-      <c r="G33" s="281">
+      <c r="G33" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -14015,7 +14017,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="293"/>
+      <c r="G10" s="292"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -14023,7 +14025,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="293"/>
+      <c r="G11" s="292"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -14037,7 +14039,7 @@
         <v>165</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="293" t="s">
+      <c r="G12" s="292" t="s">
         <v>324</v>
       </c>
     </row>
@@ -14053,7 +14055,7 @@
         <v>165</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="293"/>
+      <c r="G13" s="292"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -14067,7 +14069,7 @@
         <v>165</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="293"/>
+      <c r="G14" s="292"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -14081,7 +14083,7 @@
         <v>163</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="293"/>
+      <c r="G15" s="292"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -14095,7 +14097,7 @@
         <v>165</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="293"/>
+      <c r="G16" s="292"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -14103,7 +14105,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="293"/>
+      <c r="G17" s="292"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -14118,7 +14120,7 @@
         <v>agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="293"/>
+      <c r="G18" s="292"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -14132,7 +14134,7 @@
         <v>163</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="293"/>
+      <c r="G19" s="292"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -14146,7 +14148,7 @@
         <v>178</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="293"/>
+      <c r="G20" s="292"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14160,7 +14162,7 @@
         <v>155</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="293"/>
+      <c r="G21" s="292"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14174,7 +14176,7 @@
         <v>163</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="293"/>
+      <c r="G22" s="292"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -14182,7 +14184,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="293"/>
+      <c r="G23" s="292"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14196,7 +14198,7 @@
         <v>165</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="293"/>
+      <c r="G24" s="292"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14210,7 +14212,7 @@
         <v>156</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="293"/>
+      <c r="G25" s="292"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14224,7 +14226,7 @@
         <v>155</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="293"/>
+      <c r="G26" s="292"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14238,7 +14240,7 @@
         <v>155</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="293"/>
+      <c r="G27" s="292"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14252,7 +14254,7 @@
         <v>156</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="293"/>
+      <c r="G28" s="292"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="99" t="s">
@@ -14260,7 +14262,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="293"/>
+      <c r="G29" s="292"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14275,7 +14277,7 @@
         <v>Medium</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="293"/>
+      <c r="G30" s="292"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14289,7 +14291,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="293"/>
+      <c r="G31" s="292"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14303,7 +14305,7 @@
         <v>165</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="293"/>
+      <c r="G32" s="292"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14317,7 +14319,7 @@
         <v>156</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="293"/>
+      <c r="G33" s="292"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14331,7 +14333,7 @@
         <v>163</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="293"/>
+      <c r="G34" s="292"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14344,7 +14346,7 @@
       <c r="E35" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="293"/>
+      <c r="G35" s="292"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14359,7 +14361,7 @@
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="293"/>
+      <c r="G36" s="292"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14373,7 +14375,7 @@
         <v>178</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="293"/>
+      <c r="G37" s="292"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14387,7 +14389,7 @@
         <v>178</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="293"/>
+      <c r="G38" s="292"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14401,7 +14403,7 @@
         <v>178</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="293"/>
+      <c r="G39" s="292"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14415,7 +14417,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="293"/>
+      <c r="G40" s="292"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14428,7 +14430,7 @@
       <c r="E41" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="293"/>
+      <c r="G41" s="292"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14443,7 +14445,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="293"/>
+      <c r="G42" s="292"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14457,7 +14459,7 @@
         <v>178</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="293"/>
+      <c r="G43" s="292"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14471,7 +14473,7 @@
         <v>163</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="293"/>
+      <c r="G44" s="292"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14485,7 +14487,7 @@
         <v>165</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="293"/>
+      <c r="G45" s="292"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14499,7 +14501,7 @@
         <v>178</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="293"/>
+      <c r="G46" s="292"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14513,7 +14515,7 @@
         <v>178</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="293"/>
+      <c r="G47" s="292"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14527,7 +14529,7 @@
         <v>163</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="293"/>
+      <c r="G48" s="292"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14542,7 +14544,7 @@
         <v>Medium</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="293"/>
+      <c r="G49" s="292"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14555,7 +14557,7 @@
       <c r="E50" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="293"/>
+      <c r="G50" s="292"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14569,7 +14571,7 @@
         <v>178</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="293"/>
+      <c r="G51" s="292"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14582,7 +14584,7 @@
       <c r="E52" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="293"/>
+      <c r="G52" s="292"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14596,7 +14598,7 @@
         <v>165</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="293"/>
+      <c r="G53" s="292"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14611,7 +14613,7 @@
         <v>276</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="293"/>
+      <c r="G54" s="292"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14627,7 +14629,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="293"/>
+      <c r="G55" s="292"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14642,7 +14644,7 @@
         <v>156</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="293"/>
+      <c r="G56" s="292"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14657,7 +14659,7 @@
         <v>155</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="293"/>
+      <c r="G57" s="292"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14672,7 +14674,7 @@
         <v>155</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="293"/>
+      <c r="G58" s="292"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14687,7 +14689,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="293"/>
+      <c r="G59" s="292"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14702,7 +14704,7 @@
         <v>165</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="293"/>
+      <c r="G60" s="292"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14717,7 +14719,7 @@
         <v>277</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="293"/>
+      <c r="G61" s="292"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14733,12 +14735,12 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="293"/>
+      <c r="G62" s="292"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="293"/>
+      <c r="G63" s="292"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14752,10 +14754,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.61182823129251696</v>
       </c>
-      <c r="G64" s="293"/>
+      <c r="G64" s="292"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="294"/>
+      <c r="G65" s="293"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">
